--- a/BusinessMini_Project1.xlsx
+++ b/BusinessMini_Project1.xlsx
@@ -9,31 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="2310" tabRatio="832" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7485" windowHeight="2310" tabRatio="773" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="READ_ME" sheetId="15" r:id="rId1"/>
     <sheet name="Nashville_Income" sheetId="11" r:id="rId2"/>
     <sheet name="Nashville_Employment_Staying" sheetId="12" r:id="rId3"/>
     <sheet name="Nashville_Q4_CompiledData" sheetId="1" r:id="rId4"/>
-    <sheet name="Baltimore_Income" sheetId="13" r:id="rId5"/>
-    <sheet name="Baltimore_Employment_Staying" sheetId="14" state="hidden" r:id="rId6"/>
-    <sheet name="Baltimore_Q4_CompiledData" sheetId="2" r:id="rId7"/>
-    <sheet name="Nashville_Q4_ChildEmployment" sheetId="6" state="hidden" r:id="rId8"/>
-    <sheet name="Nashville_Q4_Stayed" sheetId="5" state="hidden" r:id="rId9"/>
-    <sheet name="Baltimore_Q4_ChildEmployment" sheetId="3" state="hidden" r:id="rId10"/>
-    <sheet name="Baltimore_Q4_Stayed" sheetId="4" state="hidden" r:id="rId11"/>
+    <sheet name="." sheetId="16" r:id="rId5"/>
+    <sheet name="Baltimore_Income" sheetId="13" r:id="rId6"/>
+    <sheet name="Baltimore_Employment_Staying" sheetId="14" r:id="rId7"/>
+    <sheet name="Baltimore_Q4_CompiledData" sheetId="2" r:id="rId8"/>
+    <sheet name="Nashville_Q4_ChildEmployment" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="Nashville_Q4_Stayed" sheetId="5" state="hidden" r:id="rId10"/>
+    <sheet name="Baltimore_Q4_ChildEmployment" sheetId="3" state="hidden" r:id="rId11"/>
+    <sheet name="Baltimore_Q4_Stayed" sheetId="4" state="hidden" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId12"/>
-    <pivotCache cacheId="29" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId14"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="181">
   <si>
     <t>tract</t>
   </si>
@@ -1141,11 +1142,41 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BusinessMini_Project1.txt.xlsx]Nashville_Income!PivotTable5</c:name>
+    <c:name>[BusinessMini_Project1.xlsx]Nashville_Income!PivotTable5</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Income</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Lowest Quintile Nashville</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1210,6 +1241,21 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -1858,10 +1904,66 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BusinessMini_Project1.txt.xlsx]Nashville_Employment_Staying!PivotTable5</c:name>
+    <c:name>[BusinessMini_Project1.xlsx]Nashville_Employment_Staying!PivotTable5</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nashville Child Employment and Staying. Lowest Parent Income Quintile </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -1941,6 +2043,36 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -3014,8 +3146,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BusinessMini_Project1.txt.xlsx]Baltimore_Income!PivotTable6</c:name>
-    <c:fmtId val="0"/>
+    <c:name>[BusinessMini_Project1.xlsx].!PivotTable6</c:name>
+    <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
@@ -3066,6 +3198,21 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3078,7 +3225,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Baltimore_Income!$B$5</c:f>
+              <c:f>'.'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3099,7 +3246,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Baltimore_Income!$A$6:$A$105</c:f>
+              <c:f>'.'!$A$6:$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="99"/>
                 <c:pt idx="0">
@@ -3404,7 +3551,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Baltimore_Income!$B$6:$B$105</c:f>
+              <c:f>'.'!$B$6:$B$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="99"/>
@@ -3704,7 +3851,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4ECA-49E3-A93E-4B21BD236B02}"/>
+              <c16:uniqueId val="{00000000-5FDF-416F-AB0E-3A3463EDCA99}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3935,7 +4082,953 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[BusinessMini_Project1.txt.xlsx]Baltimore_Employment_Staying!PivotTable6</c:name>
+    <c:name>[BusinessMini_Project1.xlsx]Baltimore_Income!PivotTable6</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Income Lowest Quintile Baltimore</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Baltimore_Income!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Baltimore_Income!$A$6:$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>Arcadia, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Armistead Gardens, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baltimore Highlands, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Barclay, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Belair - Edison, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bentalou-Smallwood, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Berea, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Better Waverly, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Bolton Hill, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bridgeview-Greenlawn, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Broadway East, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Burleith-Leighton, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Butchers Hill, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Canton, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Cedmont, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Cedonia, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Central Park Heights, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Claremont - Freedom, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Cold Springs, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Coldstream - Homestead - Montebello, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Coppin Heights, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Cross Keys, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Darley Park, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Downtown, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Druid Heights, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Dundalk, MD</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>East Arlington, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>East Baltimore Midway, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Edgecomb, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Ednor Gardens - Lakeside, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Evergreen, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Fells Point, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Fifteenth Street, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Frankford, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Franklin Square, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Gay Street, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Glenham-Belford, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Greenmount West, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Hampden, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Hanlon Longwood, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Harlem Park, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Harwood, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Hillen, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Hollins Market, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Johnson Square, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Joseph Lee, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Lauraville, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Lexington, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Little Italy, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Locust Point, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Madison - Eastend, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>McCulloh Homes, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Medfield, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Medford - Broening, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Mid-Charles, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Midtown Edmondson, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Mill Hill, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Milton - Montford, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Mondawmin, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Morrell Park, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Mosher, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Mount Clare, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>New Northwood, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>NW Community Action, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>O'Donnell Heights, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Old Goucher, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Oliver, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Park Circle, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Parkside, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Patterson Park, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Penn - Fallsway, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Penn North, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Perkins Homes, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Perring Loch, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Pigtown, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Pleasant View Gardens, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Poppleton, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Pratt Monroe, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Radnor - Winston, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Remington, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Reservoir Hill, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Riverside Park, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Riverside, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Rosedale, MD</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Rosemont, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Sandtown-Winchester, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Shipley Hill, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>South Baltimore, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Tuscany - Canterbury, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Upper Fells Point, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Upton, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Violetville, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Walbrook, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Waltherson, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Westport, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Winston - Govans, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Woodberry, Baltimore, MD</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Woodbrook, Baltimore, MD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Baltimore_Income!$B$6:$B$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>24832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24622</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24570.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25554.5625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21843</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19312.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22117.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18948.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23720</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30282.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25563</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21064</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19396</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29050</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20125.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21751</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22104</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18178</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31755.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25271</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18844</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20121</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23872</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50567</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44668</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>29888</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22240.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18807</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28533.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20606</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27099.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23845</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20344</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25023</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21882</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16364</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>30021</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27011</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19744.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22144</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>29029</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>18810</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19719</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>23379</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>25394</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24403</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>19728</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18890</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>16683</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26661.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21948</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19948</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24545</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19552</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19950</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>21693</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18835</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21236</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>22837</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21954.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19377</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19841</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>23692</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>21226.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18247</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18965</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>19811</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>29319</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>23689</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>18668</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25440</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33869</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33713.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>20579</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>19395.75</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18371</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24924.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>28995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26978</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19316.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>31884</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24370</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28063</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>18573</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>22156</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>28168</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>22832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4ECA-49E3-A93E-4B21BD236B02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1275404687"/>
+        <c:axId val="1275403023"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1275404687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275403023"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1275403023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1275404687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[BusinessMini_Project1.xlsx]Baltimore_Employment_Staying!PivotTable6</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3964,7 +5057,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> and Staying Rate</a:t>
+              <a:t> and Staying Rate. Lowest Parent Income Quintile</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -5583,6 +6676,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7634,6 +8767,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7724,6 +9360,43 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7741,7 +9414,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10737,7 +12410,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A5:B65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -11028,6 +12701,17 @@
   <dataFields count="1">
     <dataField name="Average of Parent Income (Lower Quintile)" fld="1" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -11038,7 +12722,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A5:C67" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -11345,7 +13029,7 @@
     <dataField name="Average of Stayed" fld="6" subtotal="average" baseField="0" baseItem="4"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="1" format="4" series="1">
+    <chartFormat chart="1" format="6" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11354,7 +13038,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="1" format="5" series="1">
+    <chartFormat chart="1" format="7" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11374,7 +13058,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A5:B105" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -11826,6 +13510,488 @@
   <dataFields count="1">
     <dataField name="Average of Household_Income_rP_gP_p25" fld="1" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A5:B105" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="100">
+        <item x="31"/>
+        <item x="33"/>
+        <item x="23"/>
+        <item x="3"/>
+        <item x="58"/>
+        <item x="32"/>
+        <item x="80"/>
+        <item x="69"/>
+        <item x="47"/>
+        <item x="22"/>
+        <item x="59"/>
+        <item x="70"/>
+        <item x="39"/>
+        <item x="76"/>
+        <item x="6"/>
+        <item x="26"/>
+        <item x="57"/>
+        <item x="55"/>
+        <item x="82"/>
+        <item x="14"/>
+        <item x="64"/>
+        <item x="53"/>
+        <item x="98"/>
+        <item x="48"/>
+        <item x="25"/>
+        <item x="93"/>
+        <item x="4"/>
+        <item x="29"/>
+        <item x="86"/>
+        <item x="67"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="44"/>
+        <item x="94"/>
+        <item x="89"/>
+        <item x="12"/>
+        <item x="62"/>
+        <item x="11"/>
+        <item x="38"/>
+        <item x="71"/>
+        <item x="66"/>
+        <item x="30"/>
+        <item x="52"/>
+        <item x="96"/>
+        <item x="9"/>
+        <item x="19"/>
+        <item x="60"/>
+        <item x="50"/>
+        <item x="15"/>
+        <item x="88"/>
+        <item x="78"/>
+        <item x="43"/>
+        <item x="28"/>
+        <item x="35"/>
+        <item x="77"/>
+        <item x="85"/>
+        <item x="95"/>
+        <item x="84"/>
+        <item x="21"/>
+        <item x="51"/>
+        <item x="73"/>
+        <item x="34"/>
+        <item x="81"/>
+        <item x="72"/>
+        <item x="54"/>
+        <item x="87"/>
+        <item x="56"/>
+        <item x="45"/>
+        <item x="37"/>
+        <item x="97"/>
+        <item x="83"/>
+        <item x="74"/>
+        <item x="40"/>
+        <item x="42"/>
+        <item x="92"/>
+        <item x="61"/>
+        <item x="75"/>
+        <item x="13"/>
+        <item x="41"/>
+        <item x="68"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item x="63"/>
+        <item x="65"/>
+        <item x="91"/>
+        <item x="20"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="79"/>
+        <item x="8"/>
+        <item x="36"/>
+        <item x="7"/>
+        <item x="90"/>
+        <item x="49"/>
+        <item x="17"/>
+        <item x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="100">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="2" hier="-1"/>
+    <pageField fld="4" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of Household_Income_rP_gP_p25" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -11846,8 +14012,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A5:C89" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -12570,6 +14736,1332 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C120"/>
+  <sheetViews>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>47037012702</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>0.90329999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>47037013900</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3">
+        <v>0.89610000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>47037011800</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>0.89470000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>47037014800</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>0.89180000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>47037012200</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>0.88939999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>47037016200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>0.88749999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>47037011100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>47037019400</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>47037012801</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>0.88149999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>47037013700</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>0.88080000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>47037013601</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>0.88080000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>47037016300</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>0.88029999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>47037014400</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>0.87819999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>47037016000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>0.87690000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>47037012100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>0.87619999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>47037010106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>0.87509999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>47037013800</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>47037012600</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>0.87370000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>47037016100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>0.86860000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>47037012802</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>47037017000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>0.86270000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>47037019300</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>0.86260000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>47037010105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>0.85519999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>47037011300</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>0.8538</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>47037014300</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26">
+        <v>0.85140000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>47037010904</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>0.84909999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>47037012701</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28">
+        <v>0.84760000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>47037017500</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>0.84760000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>47037011900</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <v>0.84709999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>47037011400</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>0.84289999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>47037013602</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>0.84140000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>47037011001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>0.83909999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>47037011500</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>0.83550000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>47037017100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35">
+        <v>0.83479999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>47037013500</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>0.83360000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>47037014200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>0.83299999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>47037015627</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>0.83040000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>47037011600</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>0.82869999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>47037015700</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>0.82809999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>47037010601</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>0.82579999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>47037019600</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>0.8206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>47037015100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>0.81969999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>47037019200</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>0.81830000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>47037011700</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45">
+        <v>0.81089999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>47037015628</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>0.80630000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>47037015615</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>0.8054</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47037019004</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48">
+        <v>0.80430000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>47037019006</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>0.80420000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>47037015631</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>0.80400000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>47037011200</v>
+      </c>
+      <c r="B51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51">
+        <v>0.80279999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>47037019109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52">
+        <v>0.79969999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>47037017300</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>0.79930000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>47037019110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>0.79549999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>47037015804</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>0.79190000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>47037011002</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>0.78949999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>47037013300</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>0.78769999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>47037017401</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>0.78580000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>47037015300</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>0.7843</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>47037015629</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>0.78410000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>47037015900</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61">
+        <v>0.78259999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>47037017402</v>
+      </c>
+      <c r="B62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62">
+        <v>0.78239999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>47037015624</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63">
+        <v>0.7823</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>47037015200</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <v>0.77969999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>47037013100</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>0.77949999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>47037010502</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66">
+        <v>0.7792</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>47037019003</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67">
+        <v>0.77529999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>47037018901</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>0.77239999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>47037015612</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>0.76729999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>47037018101</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>0.76419999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>47037015618</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>47037015502</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72">
+        <v>0.76149999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>47037017200</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73">
+        <v>0.76070000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>47037015613</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74">
+        <v>0.75960000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>47037018203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75">
+        <v>0.75719999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>47037015614</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>0.75249999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>47037015609</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77">
+        <v>0.74929999999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>47037015501</v>
+      </c>
+      <c r="B78" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78">
+        <v>0.74909999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>47037018801</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>47037013201</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80">
+        <v>0.74580000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>47037016600</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>0.74160000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>47037015620</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82">
+        <v>0.7399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>47037015402</v>
+      </c>
+      <c r="B83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83">
+        <v>0.73440000000000005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>47037019005</v>
+      </c>
+      <c r="B84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84">
+        <v>0.73440000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>47037013202</v>
+      </c>
+      <c r="B85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85">
+        <v>0.73150000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>47037018301</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>0.72709999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>47037015803</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87">
+        <v>0.72340000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>47037018904</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>0.72189999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>47037015625</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89">
+        <v>0.71799999999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>47037016900</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90">
+        <v>0.71779999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>47037019108</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>0.71740000000000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>47037019105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>0.71709999999999996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>47037018902</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>0.71479999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>47037015802</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94">
+        <v>0.71460000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>47037013400</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95">
+        <v>0.71120000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>47037015404</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96">
+        <v>0.7107</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>47037017800</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>47037018500</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>0.70250000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>47037015626</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99">
+        <v>0.69130000000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>47037018602</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>0.67120000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>47037018102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>0.6663</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>47037018601</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>0.65890000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>47037018202</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>0.65720000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>47037017902</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
+        <v>0.64229999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>47037016500</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>0.63939999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>47037016700</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
+        <v>0.63239999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>47037018905</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <v>0.62439999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>47037017901</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
+        <v>0.60919999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>47037019500</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <v>0.60509999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>47037016400</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>0.60050000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>47037016800</v>
+      </c>
+      <c r="B111" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>0.59870000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>47037018404</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>0.59289999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>47037018700</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113">
+        <v>0.56479999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>47037018201</v>
+      </c>
+      <c r="B114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>0.5444</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>47037018000</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>0.51880000000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>47037017702</v>
+      </c>
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>0.51649999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>47037017701</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117">
+        <v>0.50009999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>47037980100</v>
+      </c>
+      <c r="B118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>47037013000</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>47037980200</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C164"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
@@ -14381,7 +17873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C130"/>
   <sheetViews>
@@ -15828,7 +19320,7 @@
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16361,12 +19853,12 @@
   <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.59765625" bestFit="1" customWidth="1"/>
   </cols>
@@ -17098,7 +20590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -21362,7 +24854,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>178</v>
       </c>
       <c r="B1" t="s">
@@ -21370,7 +24862,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>177</v>
       </c>
       <c r="B2" t="s">
@@ -21378,7 +24870,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>176</v>
       </c>
       <c r="B3" t="s">
@@ -21386,7 +24878,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>168</v>
       </c>
       <c r="B5" t="s">
@@ -22197,9 +25689,857 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="43.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="3">
+        <v>24832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="3">
+        <v>24622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="3">
+        <v>24570.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3">
+        <v>25554.5625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="3">
+        <v>21052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="3">
+        <v>21843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="3">
+        <v>19697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="3">
+        <v>19312.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="3">
+        <v>22117.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="3">
+        <v>27143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="3">
+        <v>20994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="3">
+        <v>18948.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="3">
+        <v>23720</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="3">
+        <v>19777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="3">
+        <v>30282.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="3">
+        <v>25563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="3">
+        <v>21064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="3">
+        <v>21009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="3">
+        <v>19396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="3">
+        <v>29050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="3">
+        <v>20125.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="3">
+        <v>21751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="3">
+        <v>22240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="3">
+        <v>22104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="3">
+        <v>18178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="3">
+        <v>31755.599999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" s="3">
+        <v>25271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="3">
+        <v>18844</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="3">
+        <v>20121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="3">
+        <v>23872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="3">
+        <v>50567</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="3">
+        <v>29888</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="3">
+        <v>22240.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="3">
+        <v>18005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="3">
+        <v>18807</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="3">
+        <v>28533.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="3">
+        <v>20606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="3">
+        <v>27099.333333333332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="3">
+        <v>23845</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="3">
+        <v>20344</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="3">
+        <v>25023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="3">
+        <v>21882</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="3">
+        <v>16364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" s="3">
+        <v>30021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="3">
+        <v>27011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="3">
+        <v>19744.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="3">
+        <v>22144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="3">
+        <v>29029</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="3">
+        <v>18810</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" s="3">
+        <v>19719</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="3">
+        <v>23379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="3">
+        <v>25394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="3">
+        <v>24403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="3">
+        <v>19728</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B63" s="3">
+        <v>18890</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="3">
+        <v>16683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="3">
+        <v>19004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="3">
+        <v>26661.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="3">
+        <v>21948</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="3">
+        <v>19948</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="3">
+        <v>24545</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="3">
+        <v>19552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="3">
+        <v>19950</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" s="3">
+        <v>21693</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="3">
+        <v>18835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="3">
+        <v>21236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="3">
+        <v>22837</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <v>21954.333333333332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" s="3">
+        <v>19377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="3">
+        <v>19841</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="3">
+        <v>23692</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="3">
+        <v>21226.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="3">
+        <v>18247</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="3">
+        <v>18965</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="3">
+        <v>19811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="3">
+        <v>29319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="3">
+        <v>23689</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B87" s="3">
+        <v>18668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="3">
+        <v>25440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="3">
+        <v>33869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="3">
+        <v>33713.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="3">
+        <v>20579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="3">
+        <v>19395.75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="3">
+        <v>18371</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" s="3">
+        <v>24924.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B95" s="3">
+        <v>28995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" s="3">
+        <v>26978</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="3">
+        <v>19316.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" s="3">
+        <v>31884</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="3">
+        <v>24370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" s="3">
+        <v>28063</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101" s="3">
+        <v>18573</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" s="3">
+        <v>22156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="3">
+        <v>28168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" s="3">
+        <v>22832</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105" s="3">
+        <v>23787.217391304348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -23175,12 +27515,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H164"/>
+      <selection activeCell="B2" sqref="B1:H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27947,7 +32287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C120"/>
   <sheetViews>
@@ -29274,1330 +33614,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C120"/>
-  <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>47037012702</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2">
-        <v>0.90329999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>47037013900</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3">
-        <v>0.89610000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>47037011800</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4">
-        <v>0.89470000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>47037014800</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>0.89180000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>47037012200</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>0.88939999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>47037016200</v>
-      </c>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>0.88749999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>47037011100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>0.88700000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>47037019400</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9">
-        <v>0.88700000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>47037012801</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <v>0.88149999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>47037013700</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11">
-        <v>0.88080000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>47037013601</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12">
-        <v>0.88080000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>47037016300</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13">
-        <v>0.88029999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>47037014400</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14">
-        <v>0.87819999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>47037016000</v>
-      </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>0.87690000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>47037012100</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16">
-        <v>0.87619999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>47037010106</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17">
-        <v>0.87509999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>47037013800</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>47037012600</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>0.87370000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>47037016100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>0.86860000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>47037012802</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21">
-        <v>0.86499999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>47037017000</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <v>0.86270000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>47037019300</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>0.86260000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>47037010105</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24">
-        <v>0.85519999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>47037011300</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>0.8538</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>47037014300</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26">
-        <v>0.85140000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>47037010904</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27">
-        <v>0.84909999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>47037012701</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28">
-        <v>0.84760000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>47037017500</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29">
-        <v>0.84760000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>47037011900</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>0.84709999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>47037011400</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31">
-        <v>0.84289999999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>47037013602</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32">
-        <v>0.84140000000000004</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>47037011001</v>
-      </c>
-      <c r="B33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33">
-        <v>0.83909999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>47037011500</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34">
-        <v>0.83550000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>47037017100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35">
-        <v>0.83479999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>47037013500</v>
-      </c>
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36">
-        <v>0.83360000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>47037014200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>47037015627</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38">
-        <v>0.83040000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>47037011600</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39">
-        <v>0.82869999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>47037015700</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>0.82809999999999995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>47037010601</v>
-      </c>
-      <c r="B41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C41">
-        <v>0.82579999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>47037019600</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>0.8206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>47037015100</v>
-      </c>
-      <c r="B43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43">
-        <v>0.81969999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>47037019200</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44">
-        <v>0.81830000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>47037011700</v>
-      </c>
-      <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45">
-        <v>0.81089999999999995</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>47037015628</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46">
-        <v>0.80630000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>47037015615</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47">
-        <v>0.8054</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>47037019004</v>
-      </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48">
-        <v>0.80430000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>47037019006</v>
-      </c>
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49">
-        <v>0.80420000000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>47037015631</v>
-      </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50">
-        <v>0.80400000000000005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>47037011200</v>
-      </c>
-      <c r="B51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51">
-        <v>0.80279999999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>47037019109</v>
-      </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52">
-        <v>0.79969999999999997</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>47037017300</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53">
-        <v>0.79930000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>47037019110</v>
-      </c>
-      <c r="B54" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54">
-        <v>0.79549999999999998</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>47037015804</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55">
-        <v>0.79190000000000005</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>47037011002</v>
-      </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56">
-        <v>0.78949999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>47037013300</v>
-      </c>
-      <c r="B57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57">
-        <v>0.78769999999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>47037017401</v>
-      </c>
-      <c r="B58" t="s">
-        <v>21</v>
-      </c>
-      <c r="C58">
-        <v>0.78580000000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>47037015300</v>
-      </c>
-      <c r="B59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59">
-        <v>0.7843</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>47037015629</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60">
-        <v>0.78410000000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>47037015900</v>
-      </c>
-      <c r="B61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61">
-        <v>0.78259999999999996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>47037017402</v>
-      </c>
-      <c r="B62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62">
-        <v>0.78239999999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>47037015624</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63">
-        <v>0.7823</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>47037015200</v>
-      </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64">
-        <v>0.77969999999999995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>47037013100</v>
-      </c>
-      <c r="B65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65">
-        <v>0.77949999999999997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>47037010502</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>0.7792</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>47037019003</v>
-      </c>
-      <c r="B67" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67">
-        <v>0.77529999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>47037018901</v>
-      </c>
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68">
-        <v>0.77239999999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>47037015612</v>
-      </c>
-      <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69">
-        <v>0.76729999999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>47037018101</v>
-      </c>
-      <c r="B70" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70">
-        <v>0.76419999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <v>47037015618</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71">
-        <v>0.76249999999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>47037015502</v>
-      </c>
-      <c r="B72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72">
-        <v>0.76149999999999995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>47037017200</v>
-      </c>
-      <c r="B73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73">
-        <v>0.76070000000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>47037015613</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74">
-        <v>0.75960000000000005</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <v>47037018203</v>
-      </c>
-      <c r="B75" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75">
-        <v>0.75719999999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76">
-        <v>47037015614</v>
-      </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76">
-        <v>0.75249999999999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77">
-        <v>47037015609</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77">
-        <v>0.74929999999999997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78">
-        <v>47037015501</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78">
-        <v>0.74909999999999999</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>47037018801</v>
-      </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79">
-        <v>0.748</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>47037013201</v>
-      </c>
-      <c r="B80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80">
-        <v>0.74580000000000002</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>47037016600</v>
-      </c>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81">
-        <v>0.74160000000000004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>47037015620</v>
-      </c>
-      <c r="B82" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82">
-        <v>0.7399</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>47037015402</v>
-      </c>
-      <c r="B83" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83">
-        <v>0.73440000000000005</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>47037019005</v>
-      </c>
-      <c r="B84" t="s">
-        <v>41</v>
-      </c>
-      <c r="C84">
-        <v>0.73440000000000005</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>47037013202</v>
-      </c>
-      <c r="B85" t="s">
-        <v>39</v>
-      </c>
-      <c r="C85">
-        <v>0.73150000000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>47037018301</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86">
-        <v>0.72709999999999997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>47037015803</v>
-      </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87">
-        <v>0.72340000000000004</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>47037018904</v>
-      </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88">
-        <v>0.72189999999999999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>47037015625</v>
-      </c>
-      <c r="B89" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89">
-        <v>0.71799999999999997</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90">
-        <v>47037016900</v>
-      </c>
-      <c r="B90" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90">
-        <v>0.71779999999999999</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91">
-        <v>47037019108</v>
-      </c>
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91">
-        <v>0.71740000000000004</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92">
-        <v>47037019105</v>
-      </c>
-      <c r="B92" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92">
-        <v>0.71709999999999996</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93">
-        <v>47037018902</v>
-      </c>
-      <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93">
-        <v>0.71479999999999999</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94">
-        <v>47037015802</v>
-      </c>
-      <c r="B94" t="s">
-        <v>36</v>
-      </c>
-      <c r="C94">
-        <v>0.71460000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95">
-        <v>47037013400</v>
-      </c>
-      <c r="B95" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95">
-        <v>0.71120000000000005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96">
-        <v>47037015404</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96">
-        <v>0.7107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97">
-        <v>47037017800</v>
-      </c>
-      <c r="B97" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97">
-        <v>0.70599999999999996</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98">
-        <v>47037018500</v>
-      </c>
-      <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98">
-        <v>0.70250000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99">
-        <v>47037015626</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99">
-        <v>0.69130000000000003</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100">
-        <v>47037018602</v>
-      </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100">
-        <v>0.67120000000000002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101">
-        <v>47037018102</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101">
-        <v>0.6663</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102">
-        <v>47037018601</v>
-      </c>
-      <c r="B102" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102">
-        <v>0.65890000000000004</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103">
-        <v>47037018202</v>
-      </c>
-      <c r="B103" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103">
-        <v>0.65720000000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104">
-        <v>47037017902</v>
-      </c>
-      <c r="B104" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104">
-        <v>0.64229999999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105">
-        <v>47037016500</v>
-      </c>
-      <c r="B105" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105">
-        <v>0.63939999999999997</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106">
-        <v>47037016700</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106">
-        <v>0.63239999999999996</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107">
-        <v>47037018905</v>
-      </c>
-      <c r="B107" t="s">
-        <v>17</v>
-      </c>
-      <c r="C107">
-        <v>0.62439999999999996</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108">
-        <v>47037017901</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108">
-        <v>0.60919999999999996</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109">
-        <v>47037019500</v>
-      </c>
-      <c r="B109" t="s">
-        <v>22</v>
-      </c>
-      <c r="C109">
-        <v>0.60509999999999997</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110">
-        <v>47037016400</v>
-      </c>
-      <c r="B110" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110">
-        <v>0.60050000000000003</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111">
-        <v>47037016800</v>
-      </c>
-      <c r="B111" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111">
-        <v>0.59870000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112">
-        <v>47037018404</v>
-      </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112">
-        <v>0.59289999999999998</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113">
-        <v>47037018700</v>
-      </c>
-      <c r="B113" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113">
-        <v>0.56479999999999997</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114">
-        <v>47037018201</v>
-      </c>
-      <c r="B114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114">
-        <v>0.5444</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115">
-        <v>47037018000</v>
-      </c>
-      <c r="B115" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115">
-        <v>0.51880000000000004</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116">
-        <v>47037017702</v>
-      </c>
-      <c r="B116" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116">
-        <v>0.51649999999999996</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117">
-        <v>47037017701</v>
-      </c>
-      <c r="B117" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117">
-        <v>0.50009999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118">
-        <v>47037980100</v>
-      </c>
-      <c r="B118" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119">
-        <v>47037013000</v>
-      </c>
-      <c r="B119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120">
-        <v>47037980200</v>
-      </c>
-      <c r="B120" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>